--- a/years/1970.xlsx
+++ b/years/1970.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="FCX4K9DC" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -256,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,16 +807,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -829,14 +827,12 @@
     <xf numFmtId="3" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -845,7 +841,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,6 +891,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -971,6 +974,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1005,6 +1009,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1180,101 +1185,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" customWidth="1"/>
-    <col min="10" max="12" width="8.7109375" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickTop="1"/>
-    <row r="7" spans="1:12">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1284,10 +1276,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1298,43 +1288,41 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1344,10 +1332,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1358,2339 +1344,2200 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>35605176</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>18006986</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>17598190</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6">
+      <c r="E14" s="5">
         <v>13691101</v>
       </c>
-      <c r="G14" s="6">
+      <c r="F14" s="5">
         <v>7312714</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G14" s="5">
         <v>6378387</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="6">
+      <c r="H14" s="5">
         <v>21914075</v>
       </c>
-      <c r="K14" s="6">
+      <c r="I14" s="5">
         <v>10694272</v>
       </c>
-      <c r="L14" s="6">
+      <c r="J14" s="5">
         <v>11219803</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1035377</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>526796</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>508581</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7">
+      <c r="E15" s="6">
         <v>525668</v>
       </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
         <v>273548</v>
       </c>
-      <c r="H15" s="7">
+      <c r="G15" s="6">
         <v>252120</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7">
+      <c r="H15" s="6">
         <v>509709</v>
       </c>
-      <c r="K15" s="7">
+      <c r="I15" s="6">
         <v>253248</v>
       </c>
-      <c r="L15" s="7">
+      <c r="J15" s="6">
         <v>256461</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>303511</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>152237</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>151274</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="7">
+      <c r="E16" s="6">
         <v>70398</v>
       </c>
-      <c r="G16" s="7">
+      <c r="F16" s="6">
         <v>36447</v>
       </c>
-      <c r="H16" s="7">
+      <c r="G16" s="6">
         <v>33951</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="7">
+      <c r="H16" s="6">
         <v>233113</v>
       </c>
-      <c r="K16" s="7">
+      <c r="I16" s="6">
         <v>115790</v>
       </c>
-      <c r="L16" s="7">
+      <c r="J16" s="6">
         <v>117323</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>542111</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>265196</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>276915</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7">
+      <c r="E17" s="6">
         <v>150778</v>
       </c>
-      <c r="G17" s="7">
+      <c r="F17" s="6">
         <v>77880</v>
       </c>
-      <c r="H17" s="7">
+      <c r="G17" s="6">
         <v>72898</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="7">
+      <c r="H17" s="6">
         <v>391333</v>
       </c>
-      <c r="K17" s="7">
+      <c r="I17" s="6">
         <v>187316</v>
       </c>
-      <c r="L17" s="7">
+      <c r="J17" s="6">
         <v>204017</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>290311</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>152253</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>138058</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="7">
+      <c r="E18" s="6">
         <v>72573</v>
       </c>
-      <c r="G18" s="7">
+      <c r="F18" s="6">
         <v>43068</v>
       </c>
-      <c r="H18" s="7">
+      <c r="G18" s="6">
         <v>29505</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="7">
+      <c r="H18" s="6">
         <v>217738</v>
       </c>
-      <c r="K18" s="7">
+      <c r="I18" s="6">
         <v>109185</v>
       </c>
-      <c r="L18" s="7">
+      <c r="J18" s="6">
         <v>108553</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>307025</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>154843</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>152182</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="7">
+      <c r="E19" s="6">
         <v>97088</v>
       </c>
-      <c r="G19" s="7">
+      <c r="F19" s="6">
         <v>51896</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G19" s="6">
         <v>45192</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="7">
+      <c r="H19" s="6">
         <v>209937</v>
       </c>
-      <c r="K19" s="7">
+      <c r="I19" s="6">
         <v>102947</v>
       </c>
-      <c r="L19" s="7">
+      <c r="J19" s="6">
         <v>106990</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>2041658</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>1067437</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>974221</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="7">
+      <c r="E20" s="6">
         <v>1467304</v>
       </c>
-      <c r="G20" s="7">
+      <c r="F20" s="6">
         <v>792786</v>
       </c>
-      <c r="H20" s="7">
+      <c r="G20" s="6">
         <v>674518</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="7">
+      <c r="H20" s="6">
         <v>574354</v>
       </c>
-      <c r="K20" s="7">
+      <c r="I20" s="6">
         <v>274651</v>
       </c>
-      <c r="L20" s="7">
+      <c r="J20" s="6">
         <v>299703</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>577334</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>287376</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>289958</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7">
+      <c r="E21" s="6">
         <v>176008</v>
       </c>
-      <c r="G21" s="7">
+      <c r="F21" s="6">
         <v>92552</v>
       </c>
-      <c r="H21" s="7">
+      <c r="G21" s="6">
         <v>83456</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="7">
+      <c r="H21" s="6">
         <v>401326</v>
       </c>
-      <c r="K21" s="7">
+      <c r="I21" s="6">
         <v>194824</v>
       </c>
-      <c r="L21" s="7">
+      <c r="J21" s="6">
         <v>206502</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>225869</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>110613</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>115256</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="7">
+      <c r="E22" s="6">
         <v>39436</v>
       </c>
-      <c r="G22" s="7">
+      <c r="F22" s="6">
         <v>23710</v>
       </c>
-      <c r="H22" s="7">
+      <c r="G22" s="6">
         <v>15726</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="7">
+      <c r="H22" s="6">
         <v>186433</v>
       </c>
-      <c r="K22" s="7">
+      <c r="I22" s="6">
         <v>86903</v>
       </c>
-      <c r="L22" s="7">
+      <c r="J22" s="6">
         <v>99530</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>564802</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>281589</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>283213</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="7">
+      <c r="E23" s="6">
         <v>186856</v>
       </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6">
         <v>95964</v>
       </c>
-      <c r="H23" s="7">
+      <c r="G23" s="6">
         <v>90892</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="7">
+      <c r="H23" s="6">
         <v>377946</v>
       </c>
-      <c r="K23" s="7">
+      <c r="I23" s="6">
         <v>185625</v>
       </c>
-      <c r="L23" s="7">
+      <c r="J23" s="6">
         <v>192321</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>749669</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>382287</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>367382</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7">
+      <c r="E24" s="6">
         <v>261626</v>
       </c>
-      <c r="G24" s="7">
+      <c r="F24" s="6">
         <v>139746</v>
       </c>
-      <c r="H24" s="7">
+      <c r="G24" s="6">
         <v>121880</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="7">
+      <c r="H24" s="6">
         <v>488043</v>
       </c>
-      <c r="K24" s="7">
+      <c r="I24" s="6">
         <v>242541</v>
       </c>
-      <c r="L24" s="7">
+      <c r="J24" s="6">
         <v>245502</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>138856</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>69240</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>69616</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7">
+      <c r="E25" s="6">
         <v>43601</v>
       </c>
-      <c r="G25" s="7">
+      <c r="F25" s="6">
         <v>23740</v>
       </c>
-      <c r="H25" s="7">
+      <c r="G25" s="6">
         <v>19861</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="7">
+      <c r="H25" s="6">
         <v>95255</v>
       </c>
-      <c r="K25" s="7">
+      <c r="I25" s="6">
         <v>45500</v>
       </c>
-      <c r="L25" s="7">
+      <c r="J25" s="6">
         <v>49755</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>177951</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>91480</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>86471</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="7">
+      <c r="E26" s="6">
         <v>35451</v>
       </c>
-      <c r="G26" s="7">
+      <c r="F26" s="6">
         <v>20836</v>
       </c>
-      <c r="H26" s="7">
+      <c r="G26" s="6">
         <v>14615</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="7">
+      <c r="H26" s="6">
         <v>142500</v>
       </c>
-      <c r="K26" s="7">
+      <c r="I26" s="6">
         <v>70644</v>
       </c>
-      <c r="L26" s="7">
+      <c r="J26" s="6">
         <v>71856</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>185473</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>98012</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>87461</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="7">
+      <c r="E27" s="6">
         <v>59939</v>
       </c>
-      <c r="G27" s="7">
+      <c r="F27" s="6">
         <v>33896</v>
       </c>
-      <c r="H27" s="7">
+      <c r="G27" s="6">
         <v>26043</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="7">
+      <c r="H27" s="6">
         <v>125534</v>
       </c>
-      <c r="K27" s="7">
+      <c r="I27" s="6">
         <v>64116</v>
       </c>
-      <c r="L27" s="7">
+      <c r="J27" s="6">
         <v>61418</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>403766</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>197954</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>205812</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="7">
+      <c r="E28" s="6">
         <v>84321</v>
       </c>
-      <c r="G28" s="7">
+      <c r="F28" s="6">
         <v>45629</v>
       </c>
-      <c r="H28" s="7">
+      <c r="G28" s="6">
         <v>38692</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="7">
+      <c r="H28" s="6">
         <v>319445</v>
       </c>
-      <c r="K28" s="7">
+      <c r="I28" s="6">
         <v>152325</v>
       </c>
-      <c r="L28" s="7">
+      <c r="J28" s="6">
         <v>167120</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>210335</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>104270</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>106065</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="7">
+      <c r="E29" s="6">
         <v>61708</v>
       </c>
-      <c r="G29" s="7">
+      <c r="F29" s="6">
         <v>32849</v>
       </c>
-      <c r="H29" s="7">
+      <c r="G29" s="6">
         <v>28859</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="7">
+      <c r="H29" s="6">
         <v>148627</v>
       </c>
-      <c r="K29" s="7">
+      <c r="I29" s="6">
         <v>71421</v>
       </c>
-      <c r="L29" s="7">
+      <c r="J29" s="6">
         <v>77206</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>847884</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>423941</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>423943</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="7">
+      <c r="E30" s="6">
         <v>416662</v>
       </c>
-      <c r="G30" s="7">
+      <c r="F30" s="6">
         <v>212058</v>
       </c>
-      <c r="H30" s="7">
+      <c r="G30" s="6">
         <v>204604</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="7">
+      <c r="H30" s="6">
         <v>431222</v>
       </c>
-      <c r="K30" s="7">
+      <c r="I30" s="6">
         <v>211883</v>
       </c>
-      <c r="L30" s="7">
+      <c r="J30" s="6">
         <v>219339</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>360764</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>188554</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>172210</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="7">
+      <c r="E31" s="6">
         <v>97305</v>
       </c>
-      <c r="G31" s="7">
+      <c r="F31" s="6">
         <v>55905</v>
       </c>
-      <c r="H31" s="7">
+      <c r="G31" s="6">
         <v>41400</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="7">
+      <c r="H31" s="6">
         <v>263459</v>
       </c>
-      <c r="K31" s="7">
+      <c r="I31" s="6">
         <v>132649</v>
       </c>
-      <c r="L31" s="7">
+      <c r="J31" s="6">
         <v>130810</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>261367</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>125807</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>135560</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="7">
+      <c r="E32" s="6">
         <v>53747</v>
       </c>
-      <c r="G32" s="7">
+      <c r="F32" s="6">
         <v>28507</v>
       </c>
-      <c r="H32" s="7">
+      <c r="G32" s="6">
         <v>25240</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="7">
+      <c r="H32" s="6">
         <v>207620</v>
       </c>
-      <c r="K32" s="7">
+      <c r="I32" s="6">
         <v>97300</v>
       </c>
-      <c r="L32" s="7">
+      <c r="J32" s="6">
         <v>110320</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>518366</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>253746</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>264620</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="7">
+      <c r="E33" s="6">
         <v>124283</v>
       </c>
-      <c r="G33" s="7">
+      <c r="F33" s="6">
         <v>65094</v>
       </c>
-      <c r="H33" s="7">
+      <c r="G33" s="6">
         <v>59189</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="7">
+      <c r="H33" s="6">
         <v>394083</v>
       </c>
-      <c r="K33" s="7">
+      <c r="I33" s="6">
         <v>188652</v>
       </c>
-      <c r="L33" s="7">
+      <c r="J33" s="6">
         <v>205431</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>511160</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>250178</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>260982</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="7">
+      <c r="E34" s="6">
         <v>141309</v>
       </c>
-      <c r="G34" s="7">
+      <c r="F34" s="6">
         <v>74765</v>
       </c>
-      <c r="H34" s="7">
+      <c r="G34" s="6">
         <v>66544</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="7">
+      <c r="H34" s="6">
         <v>369851</v>
       </c>
-      <c r="K34" s="7">
+      <c r="I34" s="6">
         <v>175413</v>
       </c>
-      <c r="L34" s="7">
+      <c r="J34" s="6">
         <v>194438</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>581208</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>302237</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>278971</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="7">
+      <c r="E35" s="6">
         <v>238504</v>
       </c>
-      <c r="G35" s="7">
+      <c r="F35" s="6">
         <v>129686</v>
       </c>
-      <c r="H35" s="7">
+      <c r="G35" s="6">
         <v>108818</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="7">
+      <c r="H35" s="6">
         <v>342704</v>
       </c>
-      <c r="K35" s="7">
+      <c r="I35" s="6">
         <v>172551</v>
       </c>
-      <c r="L35" s="7">
+      <c r="J35" s="6">
         <v>170153</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>316425</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>165161</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>151264</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="7">
+      <c r="E36" s="6">
         <v>119978</v>
       </c>
-      <c r="G36" s="7">
+      <c r="F36" s="6">
         <v>67985</v>
       </c>
-      <c r="H36" s="7">
+      <c r="G36" s="6">
         <v>51993</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="7">
+      <c r="H36" s="6">
         <v>196447</v>
       </c>
-      <c r="K36" s="7">
+      <c r="I36" s="6">
         <v>97176</v>
       </c>
-      <c r="L36" s="7">
+      <c r="J36" s="6">
         <v>99271</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>376915</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>191283</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>185632</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="7">
+      <c r="E37" s="6">
         <v>151555</v>
       </c>
-      <c r="G37" s="7">
+      <c r="F37" s="6">
         <v>81340</v>
       </c>
-      <c r="H37" s="7">
+      <c r="G37" s="6">
         <v>70215</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="7">
+      <c r="H37" s="6">
         <v>225360</v>
       </c>
-      <c r="K37" s="7">
+      <c r="I37" s="6">
         <v>109943</v>
       </c>
-      <c r="L37" s="7">
+      <c r="J37" s="6">
         <v>115417</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>276122</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>139643</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>136479</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="7">
+      <c r="E38" s="6">
         <v>78195</v>
       </c>
-      <c r="G38" s="7">
+      <c r="F38" s="6">
         <v>46685</v>
       </c>
-      <c r="H38" s="7">
+      <c r="G38" s="6">
         <v>31510</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="7">
+      <c r="H38" s="6">
         <v>197927</v>
       </c>
-      <c r="K38" s="7">
+      <c r="I38" s="6">
         <v>92958</v>
       </c>
-      <c r="L38" s="7">
+      <c r="J38" s="6">
         <v>104969</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>684951</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>348024</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>336927</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="7">
+      <c r="E39" s="6">
         <v>196821</v>
       </c>
-      <c r="G39" s="7">
+      <c r="F39" s="6">
         <v>110250</v>
       </c>
-      <c r="H39" s="7">
+      <c r="G39" s="6">
         <v>86571</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="7">
+      <c r="H39" s="6">
         <v>488130</v>
       </c>
-      <c r="K39" s="7">
+      <c r="I39" s="6">
         <v>237774</v>
       </c>
-      <c r="L39" s="7">
+      <c r="J39" s="6">
         <v>250356</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>459367</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>231671</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>227696</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="7">
+      <c r="E40" s="6">
         <v>245905</v>
       </c>
-      <c r="G40" s="7">
+      <c r="F40" s="6">
         <v>127441</v>
       </c>
-      <c r="H40" s="7">
+      <c r="G40" s="6">
         <v>118464</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="7">
+      <c r="H40" s="6">
         <v>213462</v>
       </c>
-      <c r="K40" s="7">
+      <c r="I40" s="6">
         <v>104230</v>
       </c>
-      <c r="L40" s="7">
+      <c r="J40" s="6">
         <v>109232</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>606540</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>308154</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>298386</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="7">
+      <c r="E41" s="6">
         <v>330082</v>
       </c>
-      <c r="G41" s="7">
+      <c r="F41" s="6">
         <v>171779</v>
       </c>
-      <c r="H41" s="7">
+      <c r="G41" s="6">
         <v>158303</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="7">
+      <c r="H41" s="6">
         <v>276458</v>
       </c>
-      <c r="K41" s="7">
+      <c r="I41" s="6">
         <v>136375</v>
       </c>
-      <c r="L41" s="7">
+      <c r="J41" s="6">
         <v>140083</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>451679</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>215932</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>235747</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="7">
+      <c r="E42" s="6">
         <v>90906</v>
       </c>
-      <c r="G42" s="7">
+      <c r="F42" s="6">
         <v>47818</v>
       </c>
-      <c r="H42" s="7">
+      <c r="G42" s="6">
         <v>43088</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="7">
+      <c r="H42" s="6">
         <v>360773</v>
       </c>
-      <c r="K42" s="7">
+      <c r="I42" s="6">
         <v>168114</v>
       </c>
-      <c r="L42" s="7">
+      <c r="J42" s="6">
         <v>192659</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>282238</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>133580</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>148658</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="7">
+      <c r="E43" s="6">
         <v>45070</v>
       </c>
-      <c r="G43" s="7">
+      <c r="F43" s="6">
         <v>26173</v>
       </c>
-      <c r="H43" s="7">
+      <c r="G43" s="6">
         <v>18897</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="7">
+      <c r="H43" s="6">
         <v>237168</v>
       </c>
-      <c r="K43" s="7">
+      <c r="I43" s="6">
         <v>107407</v>
       </c>
-      <c r="L43" s="7">
+      <c r="J43" s="6">
         <v>129761</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>102312</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>54813</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>47499</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="7">
+      <c r="E44" s="6">
         <v>20794</v>
       </c>
-      <c r="G44" s="7">
+      <c r="F44" s="6">
         <v>12525</v>
       </c>
-      <c r="H44" s="7">
+      <c r="G44" s="6">
         <v>8269</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="7">
+      <c r="H44" s="6">
         <v>81518</v>
       </c>
-      <c r="K44" s="7">
+      <c r="I44" s="6">
         <v>42288</v>
       </c>
-      <c r="L44" s="7">
+      <c r="J44" s="6">
         <v>39230</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>591064</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>303068</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>287996</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="7">
+      <c r="E45" s="6">
         <v>242052</v>
       </c>
-      <c r="G45" s="7">
+      <c r="F45" s="6">
         <v>128445</v>
       </c>
-      <c r="H45" s="7">
+      <c r="G45" s="6">
         <v>113607</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="7">
+      <c r="H45" s="6">
         <v>349012</v>
       </c>
-      <c r="K45" s="7">
+      <c r="I45" s="6">
         <v>174623</v>
       </c>
-      <c r="L45" s="7">
+      <c r="J45" s="6">
         <v>174389</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>300029</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>151283</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>148746</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="7">
+      <c r="E46" s="6">
         <v>114296</v>
       </c>
-      <c r="G46" s="7">
+      <c r="F46" s="6">
         <v>61659</v>
       </c>
-      <c r="H46" s="7">
+      <c r="G46" s="6">
         <v>52637</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="7">
+      <c r="H46" s="6">
         <v>185733</v>
       </c>
-      <c r="K46" s="7">
+      <c r="I46" s="6">
         <v>89624</v>
       </c>
-      <c r="L46" s="7">
+      <c r="J46" s="6">
         <v>96109</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>590943</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>300197</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>290746</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="7">
+      <c r="E47" s="6">
         <v>246300</v>
       </c>
-      <c r="G47" s="7">
+      <c r="F47" s="6">
         <v>128906</v>
       </c>
-      <c r="H47" s="7">
+      <c r="G47" s="6">
         <v>117394</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="7">
+      <c r="H47" s="6">
         <v>344643</v>
       </c>
-      <c r="K47" s="7">
+      <c r="I47" s="6">
         <v>171291</v>
       </c>
-      <c r="L47" s="7">
+      <c r="J47" s="6">
         <v>173352</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>3019032</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>1624658</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>1394374</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="7">
+      <c r="E48" s="6">
         <v>2203337</v>
       </c>
-      <c r="G48" s="7">
+      <c r="F48" s="6">
         <v>1183864</v>
       </c>
-      <c r="H48" s="7">
+      <c r="G48" s="6">
         <v>1019473</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="7">
+      <c r="H48" s="6">
         <v>815695</v>
       </c>
-      <c r="K48" s="7">
+      <c r="I48" s="6">
         <v>440794</v>
       </c>
-      <c r="L48" s="7">
+      <c r="J48" s="6">
         <v>374901</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>1427173</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>739429</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>687744</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="7">
+      <c r="E49" s="6">
         <v>753041</v>
       </c>
-      <c r="G49" s="7">
+      <c r="F49" s="6">
         <v>391502</v>
       </c>
-      <c r="H49" s="7">
+      <c r="G49" s="6">
         <v>361539</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="7">
+      <c r="H49" s="6">
         <v>674132</v>
       </c>
-      <c r="K49" s="7">
+      <c r="I49" s="6">
         <v>347927</v>
       </c>
-      <c r="L49" s="7">
+      <c r="J49" s="6">
         <v>326205</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>660018</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>335249</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>324769</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="7">
+      <c r="E50" s="6">
         <v>153241</v>
       </c>
-      <c r="G50" s="7">
+      <c r="F50" s="6">
         <v>91667</v>
       </c>
-      <c r="H50" s="7">
+      <c r="G50" s="6">
         <v>61574</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="7">
+      <c r="H50" s="6">
         <v>506777</v>
       </c>
-      <c r="K50" s="7">
+      <c r="I50" s="6">
         <v>243582</v>
       </c>
-      <c r="L50" s="7">
+      <c r="J50" s="6">
         <v>263195</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>446601</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>214490</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>232111</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="7">
+      <c r="E51" s="6">
         <v>82101</v>
       </c>
-      <c r="G51" s="7">
+      <c r="F51" s="6">
         <v>44219</v>
       </c>
-      <c r="H51" s="7">
+      <c r="G51" s="6">
         <v>37882</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="7">
+      <c r="H51" s="6">
         <v>364500</v>
       </c>
-      <c r="K51" s="7">
+      <c r="I51" s="6">
         <v>170271</v>
       </c>
-      <c r="L51" s="7">
+      <c r="J51" s="6">
         <v>194229</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>598693</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>293904</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>304789</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="7">
+      <c r="E52" s="6">
         <v>236824</v>
       </c>
-      <c r="G52" s="7">
+      <c r="F52" s="6">
         <v>123034</v>
       </c>
-      <c r="H52" s="7">
+      <c r="G52" s="6">
         <v>113790</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="7">
+      <c r="H52" s="6">
         <v>361869</v>
       </c>
-      <c r="K52" s="7">
+      <c r="I52" s="6">
         <v>170870</v>
       </c>
-      <c r="L52" s="7">
+      <c r="J52" s="6">
         <v>190999</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>257131</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>136509</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>120622</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="7">
+      <c r="E53" s="6">
         <v>92581</v>
       </c>
-      <c r="G53" s="7">
+      <c r="F53" s="6">
         <v>55096</v>
       </c>
-      <c r="H53" s="7">
+      <c r="G53" s="6">
         <v>37485</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="7">
+      <c r="H53" s="6">
         <v>164550</v>
       </c>
-      <c r="K53" s="7">
+      <c r="I53" s="6">
         <v>81413</v>
       </c>
-      <c r="L53" s="7">
+      <c r="J53" s="6">
         <v>83137</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>214932</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>103170</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>111762</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="7">
+      <c r="E54" s="6">
         <v>54669</v>
       </c>
-      <c r="G54" s="7">
+      <c r="F54" s="6">
         <v>29295</v>
       </c>
-      <c r="H54" s="7">
+      <c r="G54" s="6">
         <v>25374</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="7">
+      <c r="H54" s="6">
         <v>160263</v>
       </c>
-      <c r="K54" s="7">
+      <c r="I54" s="6">
         <v>73875</v>
       </c>
-      <c r="L54" s="7">
+      <c r="J54" s="6">
         <v>86388</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>385408</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>204040</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>181368</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="7">
+      <c r="E55" s="6">
         <v>188185</v>
       </c>
-      <c r="G55" s="7">
+      <c r="F55" s="6">
         <v>104998</v>
       </c>
-      <c r="H55" s="7">
+      <c r="G55" s="6">
         <v>83187</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="7">
+      <c r="H55" s="6">
         <v>197223</v>
       </c>
-      <c r="K55" s="7">
+      <c r="I55" s="6">
         <v>99042</v>
       </c>
-      <c r="L55" s="7">
+      <c r="J55" s="6">
         <v>98181</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>1280239</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>632610</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>647629</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="7">
+      <c r="E56" s="6">
         <v>455707</v>
       </c>
-      <c r="G56" s="7">
+      <c r="F56" s="6">
         <v>237331</v>
       </c>
-      <c r="H56" s="7">
+      <c r="G56" s="6">
         <v>218376</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="7">
+      <c r="H56" s="6">
         <v>824532</v>
       </c>
-      <c r="K56" s="7">
+      <c r="I56" s="6">
         <v>395279</v>
       </c>
-      <c r="L56" s="7">
+      <c r="J56" s="6">
         <v>429253</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>439967</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>224041</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>215926</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="7">
+      <c r="E57" s="6">
         <v>110209</v>
       </c>
-      <c r="G57" s="7">
+      <c r="F57" s="6">
         <v>61347</v>
       </c>
-      <c r="H57" s="7">
+      <c r="G57" s="6">
         <v>48862</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="7">
+      <c r="H57" s="6">
         <v>329758</v>
       </c>
-      <c r="K57" s="7">
+      <c r="I57" s="6">
         <v>162694</v>
       </c>
-      <c r="L57" s="7">
+      <c r="J57" s="6">
         <v>167064</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>510979</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>256777</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>254202</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="7">
+      <c r="E58" s="6">
         <v>179647</v>
       </c>
-      <c r="G58" s="7">
+      <c r="F58" s="6">
         <v>94884</v>
       </c>
-      <c r="H58" s="7">
+      <c r="G58" s="6">
         <v>84763</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="7">
+      <c r="H58" s="6">
         <v>331332</v>
       </c>
-      <c r="K58" s="7">
+      <c r="I58" s="6">
         <v>161893</v>
       </c>
-      <c r="L58" s="7">
+      <c r="J58" s="6">
         <v>169439</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>805650</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>405339</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>400311</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="7">
+      <c r="E59" s="6">
         <v>299202</v>
       </c>
-      <c r="G59" s="7">
+      <c r="F59" s="6">
         <v>155126</v>
       </c>
-      <c r="H59" s="7">
+      <c r="G59" s="6">
         <v>144076</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="7">
+      <c r="H59" s="6">
         <v>506448</v>
       </c>
-      <c r="K59" s="7">
+      <c r="I59" s="6">
         <v>250213</v>
       </c>
-      <c r="L59" s="7">
+      <c r="J59" s="6">
         <v>256235</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>528982</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>266819</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>262163</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="7">
+      <c r="E60" s="6">
         <v>165056</v>
       </c>
-      <c r="G60" s="7">
+      <c r="F60" s="6">
         <v>87503</v>
       </c>
-      <c r="H60" s="7">
+      <c r="G60" s="6">
         <v>77553</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="7">
+      <c r="H60" s="6">
         <v>363926</v>
       </c>
-      <c r="K60" s="7">
+      <c r="I60" s="6">
         <v>179316</v>
       </c>
-      <c r="L60" s="7">
+      <c r="J60" s="6">
         <v>184610</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>453092</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>230638</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>222454</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="7">
+      <c r="E61" s="6">
         <v>119852</v>
       </c>
-      <c r="G61" s="7">
+      <c r="F61" s="6">
         <v>63883</v>
       </c>
-      <c r="H61" s="7">
+      <c r="G61" s="6">
         <v>55969</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="7">
+      <c r="H61" s="6">
         <v>333240</v>
       </c>
-      <c r="K61" s="7">
+      <c r="I61" s="6">
         <v>166755</v>
       </c>
-      <c r="L61" s="7">
+      <c r="J61" s="6">
         <v>166485</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>368776</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>183738</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>185038</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="7">
+      <c r="E62" s="6">
         <v>70596</v>
       </c>
-      <c r="G62" s="7">
+      <c r="F62" s="6">
         <v>36085</v>
       </c>
-      <c r="H62" s="7">
+      <c r="G62" s="6">
         <v>34511</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="7">
+      <c r="H62" s="6">
         <v>298180</v>
       </c>
-      <c r="K62" s="7">
+      <c r="I62" s="6">
         <v>147653</v>
       </c>
-      <c r="L62" s="7">
+      <c r="J62" s="6">
         <v>150527</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>234250</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>120494</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>113756</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="7">
+      <c r="E63" s="6">
         <v>44889</v>
       </c>
-      <c r="G63" s="7">
+      <c r="F63" s="6">
         <v>25160</v>
       </c>
-      <c r="H63" s="7">
+      <c r="G63" s="6">
         <v>19729</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="7">
+      <c r="H63" s="6">
         <v>189361</v>
       </c>
-      <c r="K63" s="7">
+      <c r="I63" s="6">
         <v>95334</v>
       </c>
-      <c r="L63" s="7">
+      <c r="J63" s="6">
         <v>94027</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>229830</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>109886</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <v>119944</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="7">
+      <c r="E64" s="6">
         <v>57545</v>
       </c>
-      <c r="G64" s="7">
+      <c r="F64" s="6">
         <v>29045</v>
       </c>
-      <c r="H64" s="7">
+      <c r="G64" s="6">
         <v>28500</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="7">
+      <c r="H64" s="6">
         <v>172285</v>
       </c>
-      <c r="K64" s="7">
+      <c r="I64" s="6">
         <v>80841</v>
       </c>
-      <c r="L64" s="7">
+      <c r="J64" s="6">
         <v>91444</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>408441</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>197665</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>210776</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="7">
+      <c r="E65" s="6">
         <v>85772</v>
       </c>
-      <c r="G65" s="7">
+      <c r="F65" s="6">
         <v>43717</v>
       </c>
-      <c r="H65" s="7">
+      <c r="G65" s="6">
         <v>42055</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="7">
+      <c r="H65" s="6">
         <v>322669</v>
       </c>
-      <c r="K65" s="7">
+      <c r="I65" s="6">
         <v>153948</v>
       </c>
-      <c r="L65" s="7">
+      <c r="J65" s="6">
         <v>168721</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>608721</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>298842</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>309879</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="7">
+      <c r="E66" s="6">
         <v>118041</v>
       </c>
-      <c r="G66" s="7">
+      <c r="F66" s="6">
         <v>63387</v>
       </c>
-      <c r="H66" s="7">
+      <c r="G66" s="6">
         <v>54654</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="7">
+      <c r="H66" s="6">
         <v>490680</v>
       </c>
-      <c r="K66" s="7">
+      <c r="I66" s="6">
         <v>235455</v>
       </c>
-      <c r="L66" s="7">
+      <c r="J66" s="6">
         <v>255225</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>315700</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>150099</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>165601</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="7">
+      <c r="E67" s="6">
         <v>72714</v>
       </c>
-      <c r="G67" s="7">
+      <c r="F67" s="6">
         <v>38085</v>
       </c>
-      <c r="H67" s="7">
+      <c r="G67" s="6">
         <v>34629</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="7">
+      <c r="H67" s="6">
         <v>242986</v>
       </c>
-      <c r="K67" s="7">
+      <c r="I67" s="6">
         <v>112014</v>
       </c>
-      <c r="L67" s="7">
+      <c r="J67" s="6">
         <v>130972</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>459052</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>228431</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>230621</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="7">
+      <c r="E68" s="6">
         <v>152277</v>
       </c>
-      <c r="G68" s="7">
+      <c r="F68" s="6">
         <v>79249</v>
       </c>
-      <c r="H68" s="7">
+      <c r="G68" s="6">
         <v>73028</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="7">
+      <c r="H68" s="6">
         <v>306775</v>
       </c>
-      <c r="K68" s="7">
+      <c r="I68" s="6">
         <v>149182</v>
       </c>
-      <c r="L68" s="7">
+      <c r="J68" s="6">
         <v>157593</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>821183</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>404163</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>417020</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="7">
+      <c r="E69" s="6">
         <v>235716</v>
       </c>
-      <c r="G69" s="7">
+      <c r="F69" s="6">
         <v>119468</v>
       </c>
-      <c r="H69" s="7">
+      <c r="G69" s="6">
         <v>116248</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="7">
+      <c r="H69" s="6">
         <v>585467</v>
       </c>
-      <c r="K69" s="7">
+      <c r="I69" s="6">
         <v>284695</v>
       </c>
-      <c r="L69" s="7">
+      <c r="J69" s="6">
         <v>300772</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>320684</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>166247</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>154437</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="7">
+      <c r="E70" s="6">
         <v>111206</v>
       </c>
-      <c r="G70" s="7">
+      <c r="F70" s="6">
         <v>59724</v>
       </c>
-      <c r="H70" s="7">
+      <c r="G70" s="6">
         <v>51482</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="7">
+      <c r="H70" s="6">
         <v>209478</v>
       </c>
-      <c r="K70" s="7">
+      <c r="I70" s="6">
         <v>106523</v>
       </c>
-      <c r="L70" s="7">
+      <c r="J70" s="6">
         <v>102955</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>265655</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>127999</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>137656</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="7">
+      <c r="E71" s="6">
         <v>46382</v>
       </c>
-      <c r="G71" s="7">
+      <c r="F71" s="6">
         <v>24282</v>
       </c>
-      <c r="H71" s="7">
+      <c r="G71" s="6">
         <v>22100</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="7">
+      <c r="H71" s="6">
         <v>219273</v>
       </c>
-      <c r="K71" s="7">
+      <c r="I71" s="6">
         <v>103717</v>
       </c>
-      <c r="L71" s="7">
+      <c r="J71" s="6">
         <v>115556</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>731921</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>358440</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>373481</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="7">
+      <c r="E72" s="6">
         <v>211374</v>
       </c>
-      <c r="G72" s="7">
+      <c r="F72" s="6">
         <v>113153</v>
       </c>
-      <c r="H72" s="7">
+      <c r="G72" s="6">
         <v>98221</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="7">
+      <c r="H72" s="6">
         <v>520547</v>
       </c>
-      <c r="K72" s="7">
+      <c r="I72" s="6">
         <v>245287</v>
       </c>
-      <c r="L72" s="7">
+      <c r="J72" s="6">
         <v>275260</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>302946</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>159917</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>143029</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="7">
+      <c r="E73" s="6">
         <v>117351</v>
       </c>
-      <c r="G73" s="7">
+      <c r="F73" s="6">
         <v>69261</v>
       </c>
-      <c r="H73" s="7">
+      <c r="G73" s="6">
         <v>48090</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="7">
+      <c r="H73" s="6">
         <v>185595</v>
       </c>
-      <c r="K73" s="7">
+      <c r="I73" s="6">
         <v>90656</v>
       </c>
-      <c r="L73" s="7">
+      <c r="J73" s="6">
         <v>94939</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>540855</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>269089</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>271766</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="7">
+      <c r="E74" s="6">
         <v>146623</v>
       </c>
-      <c r="G74" s="7">
+      <c r="F74" s="6">
         <v>76322</v>
       </c>
-      <c r="H74" s="7">
+      <c r="G74" s="6">
         <v>70301</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="7">
+      <c r="H74" s="6">
         <v>394232</v>
       </c>
-      <c r="K74" s="7">
+      <c r="I74" s="6">
         <v>192767</v>
       </c>
-      <c r="L74" s="7">
+      <c r="J74" s="6">
         <v>201465</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>659120</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>312736</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>346384</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="7">
+      <c r="E75" s="6">
         <v>138435</v>
       </c>
-      <c r="G75" s="7">
+      <c r="F75" s="6">
         <v>72892</v>
       </c>
-      <c r="H75" s="7">
+      <c r="G75" s="6">
         <v>65543</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="7">
+      <c r="H75" s="6">
         <v>520685</v>
       </c>
-      <c r="K75" s="7">
+      <c r="I75" s="6">
         <v>239844</v>
       </c>
-      <c r="L75" s="7">
+      <c r="J75" s="6">
         <v>280841</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>157293</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>78064</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>79229</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="7">
+      <c r="E76" s="6">
         <v>29363</v>
       </c>
-      <c r="G76" s="7">
+      <c r="F76" s="6">
         <v>16731</v>
       </c>
-      <c r="H76" s="7">
+      <c r="G76" s="6">
         <v>12632</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="7">
+      <c r="H76" s="6">
         <v>127930</v>
       </c>
-      <c r="K76" s="7">
+      <c r="I76" s="6">
         <v>61333</v>
       </c>
-      <c r="L76" s="7">
+      <c r="J76" s="6">
         <v>66597</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>538131</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>274765</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>263366</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="7">
+      <c r="E77" s="6">
         <v>205524</v>
       </c>
-      <c r="G77" s="7">
+      <c r="F77" s="6">
         <v>107087</v>
       </c>
-      <c r="H77" s="7">
+      <c r="G77" s="6">
         <v>98437</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="7">
+      <c r="H77" s="6">
         <v>332607</v>
       </c>
-      <c r="K77" s="7">
+      <c r="I77" s="6">
         <v>167678</v>
       </c>
-      <c r="L77" s="7">
+      <c r="J77" s="6">
         <v>164929</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>207512</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>100593</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>106919</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="7">
+      <c r="E78" s="6">
         <v>69926</v>
       </c>
-      <c r="G78" s="7">
+      <c r="F78" s="6">
         <v>36058</v>
       </c>
-      <c r="H78" s="7">
+      <c r="G78" s="6">
         <v>33868</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="7">
+      <c r="H78" s="6">
         <v>137586</v>
       </c>
-      <c r="K78" s="7">
+      <c r="I78" s="6">
         <v>64535</v>
       </c>
-      <c r="L78" s="7">
+      <c r="J78" s="6">
         <v>73051</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>325763</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>171232</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>154531</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="7">
+      <c r="E79" s="6">
         <v>88227</v>
       </c>
-      <c r="G79" s="7">
+      <c r="F79" s="6">
         <v>49052</v>
       </c>
-      <c r="H79" s="7">
+      <c r="G79" s="6">
         <v>39175</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="7">
+      <c r="H79" s="6">
         <v>237536</v>
       </c>
-      <c r="K79" s="7">
+      <c r="I79" s="6">
         <v>122180</v>
       </c>
-      <c r="L79" s="7">
+      <c r="J79" s="6">
         <v>115356</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>464410</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>226949</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <v>237461</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="7">
+      <c r="E80" s="6">
         <v>88065</v>
       </c>
-      <c r="G80" s="7">
+      <c r="F80" s="6">
         <v>47364</v>
       </c>
-      <c r="H80" s="7">
+      <c r="G80" s="6">
         <v>40701</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="7">
+      <c r="H80" s="6">
         <v>376345</v>
       </c>
-      <c r="K80" s="7">
+      <c r="I80" s="6">
         <v>179585</v>
       </c>
-      <c r="L80" s="7">
+      <c r="J80" s="6">
         <v>196760</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>743654</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>371109</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="6">
         <v>372545</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="7">
+      <c r="E81" s="6">
         <v>220904</v>
       </c>
-      <c r="G81" s="7">
+      <c r="F81" s="6">
         <v>121275</v>
       </c>
-      <c r="H81" s="7">
+      <c r="G81" s="6">
         <v>99629</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="7">
+      <c r="H81" s="6">
         <v>522750</v>
       </c>
-      <c r="K81" s="7">
+      <c r="I81" s="6">
         <v>249834</v>
       </c>
-      <c r="L81" s="7">
+      <c r="J81" s="6">
         <v>272916</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="23.25">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="23.25">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/years/1970.xlsx
+++ b/years/1970.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FCX4K9DC" sheetId="2" r:id="rId1"/>
+    <sheet name="FCX4K9DC" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>TÜRKİYE İSTATİSTİK KURUMU</t>
   </si>
@@ -23,21 +23,21 @@
     <t>1970 GENEL NÜFUS SAYIMI VERİ TABANI</t>
   </si>
   <si>
-    <t xml:space="preserve">İllere göre şehir ve köy nüfusları </t>
+    <t>İllere göre şehir ve köy nüfusları</t>
+  </si>
+  <si>
+    <t>Toplam</t>
+  </si>
+  <si>
+    <t>Şehir</t>
+  </si>
+  <si>
+    <t>Köy</t>
   </si>
   <si>
     <t>İller</t>
   </si>
   <si>
-    <t>Toplam</t>
-  </si>
-  <si>
-    <t>Şehir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Köy </t>
-  </si>
-  <si>
     <t>Erkek</t>
   </si>
   <si>
@@ -53,7 +53,7 @@
     <t>Adıyaman</t>
   </si>
   <si>
-    <t>Afyonkarahisar</t>
+    <t>Afyon</t>
   </si>
   <si>
     <t>Ağrı</t>
@@ -143,7 +143,7 @@
     <t>Isparta</t>
   </si>
   <si>
-    <t>İçel</t>
+    <t>Mersin (İçel)</t>
   </si>
   <si>
     <t>İstanbul</t>
@@ -233,7 +233,7 @@
     <t>Tunceli</t>
   </si>
   <si>
-    <t>Urfa</t>
+    <t>Şanlıurfa</t>
   </si>
   <si>
     <t>Uşak</t>
@@ -246,183 +246,57 @@
   </si>
   <si>
     <t>Zonguldak</t>
-  </si>
-  <si>
-    <t>Şehir : İl ve ilçe merkezleri sınırları içindeki nüfustur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Köy : İl ve ilçe merkezleri dışında kalan yerleşim yerlerindeki nüfustur. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <b val="true"/>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -430,7 +304,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF7F0000"/>
       <name val="Arial"/>
@@ -445,7 +319,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,3091 +328,2526 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFC1C1C1"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1C1C1"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7F0000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC1C1C1"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5708502024291"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="7.85425101214575"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="9" t="n">
         <v>35605176</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="9" t="n">
         <v>18006986</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="9" t="n">
         <v>17598190</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="9" t="n">
         <v>13691101</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="9" t="n">
         <v>7312714</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="9" t="n">
         <v>6378387</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="9" t="n">
         <v>21914075</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="9" t="n">
         <v>10694272</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="9" t="n">
         <v>11219803</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="10" t="n">
         <v>1035377</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="10" t="n">
         <v>526796</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="10" t="n">
         <v>508581</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="10" t="n">
         <v>525668</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="10" t="n">
         <v>273548</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="10" t="n">
         <v>252120</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="10" t="n">
         <v>509709</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="10" t="n">
         <v>253248</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="10" t="n">
         <v>256461</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10" t="n">
         <v>303511</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="10" t="n">
         <v>152237</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="10" t="n">
         <v>151274</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="10" t="n">
         <v>70398</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="10" t="n">
         <v>36447</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="10" t="n">
         <v>33951</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="10" t="n">
         <v>233113</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="10" t="n">
         <v>115790</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="10" t="n">
         <v>117323</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10" t="n">
         <v>542111</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="10" t="n">
         <v>265196</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="10" t="n">
         <v>276915</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="10" t="n">
         <v>150778</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="10" t="n">
         <v>77880</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="10" t="n">
         <v>72898</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="10" t="n">
         <v>391333</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="10" t="n">
         <v>187316</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="10" t="n">
         <v>204017</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="10" t="n">
         <v>290311</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="10" t="n">
         <v>152253</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="10" t="n">
         <v>138058</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="10" t="n">
         <v>72573</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="10" t="n">
         <v>43068</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="10" t="n">
         <v>29505</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="10" t="n">
         <v>217738</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="10" t="n">
         <v>109185</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="10" t="n">
         <v>108553</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="10" t="n">
         <v>307025</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="10" t="n">
         <v>154843</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="10" t="n">
         <v>152182</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="10" t="n">
         <v>97088</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="10" t="n">
         <v>51896</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="10" t="n">
         <v>45192</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="10" t="n">
         <v>209937</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="10" t="n">
         <v>102947</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="10" t="n">
         <v>106990</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="10" t="n">
         <v>2041658</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10" t="n">
         <v>1067437</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="10" t="n">
         <v>974221</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="10" t="n">
         <v>1467304</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="10" t="n">
         <v>792786</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="10" t="n">
         <v>674518</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="10" t="n">
         <v>574354</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="10" t="n">
         <v>274651</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="10" t="n">
         <v>299703</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="10" t="n">
         <v>577334</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="10" t="n">
         <v>287376</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="10" t="n">
         <v>289958</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="10" t="n">
         <v>176008</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="10" t="n">
         <v>92552</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="10" t="n">
         <v>83456</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="10" t="n">
         <v>401326</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="10" t="n">
         <v>194824</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="10" t="n">
         <v>206502</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="10" t="n">
         <v>225869</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="10" t="n">
         <v>110613</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="10" t="n">
         <v>115256</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="10" t="n">
         <v>39436</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="10" t="n">
         <v>23710</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="10" t="n">
         <v>15726</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="10" t="n">
         <v>186433</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="10" t="n">
         <v>86903</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="10" t="n">
         <v>99530</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="10" t="n">
         <v>564802</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="10" t="n">
         <v>281589</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="10" t="n">
         <v>283213</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="10" t="n">
         <v>186856</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="10" t="n">
         <v>95964</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="10" t="n">
         <v>90892</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="10" t="n">
         <v>377946</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="10" t="n">
         <v>185625</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="10" t="n">
         <v>192321</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="10" t="n">
         <v>749669</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="10" t="n">
         <v>382287</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="10" t="n">
         <v>367382</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="10" t="n">
         <v>261626</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="10" t="n">
         <v>139746</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="10" t="n">
         <v>121880</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="10" t="n">
         <v>488043</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="10" t="n">
         <v>242541</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="10" t="n">
         <v>245502</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="10" t="n">
         <v>138856</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="10" t="n">
         <v>69240</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="10" t="n">
         <v>69616</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="10" t="n">
         <v>43601</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="10" t="n">
         <v>23740</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="10" t="n">
         <v>19861</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="10" t="n">
         <v>95255</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="10" t="n">
         <v>45500</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="10" t="n">
         <v>49755</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="10" t="n">
         <v>177951</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="10" t="n">
         <v>91480</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="10" t="n">
         <v>86471</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="10" t="n">
         <v>35451</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="10" t="n">
         <v>20836</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="10" t="n">
         <v>14615</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="10" t="n">
         <v>142500</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="10" t="n">
         <v>70644</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="10" t="n">
         <v>71856</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="10" t="n">
         <v>185473</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="10" t="n">
         <v>98012</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="10" t="n">
         <v>87461</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="10" t="n">
         <v>59939</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="10" t="n">
         <v>33896</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="10" t="n">
         <v>26043</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="10" t="n">
         <v>125534</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="10" t="n">
         <v>64116</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="10" t="n">
         <v>61418</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="10" t="n">
         <v>403766</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="10" t="n">
         <v>197954</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="10" t="n">
         <v>205812</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="10" t="n">
         <v>84321</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="10" t="n">
         <v>45629</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="10" t="n">
         <v>38692</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="10" t="n">
         <v>319445</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="10" t="n">
         <v>152325</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="10" t="n">
         <v>167120</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="10" t="n">
         <v>210335</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="10" t="n">
         <v>104270</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="10" t="n">
         <v>106065</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="10" t="n">
         <v>61708</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="10" t="n">
         <v>32849</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="10" t="n">
         <v>28859</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="10" t="n">
         <v>148627</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="10" t="n">
         <v>71421</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="10" t="n">
         <v>77206</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="10" t="n">
         <v>847884</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="10" t="n">
         <v>423941</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="10" t="n">
         <v>423943</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="10" t="n">
         <v>416662</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="10" t="n">
         <v>212058</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="10" t="n">
         <v>204604</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="10" t="n">
         <v>431222</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="10" t="n">
         <v>211883</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="10" t="n">
         <v>219339</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="10" t="n">
         <v>360764</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="10" t="n">
         <v>188554</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="10" t="n">
         <v>172210</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="10" t="n">
         <v>97305</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="10" t="n">
         <v>55905</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="10" t="n">
         <v>41400</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="10" t="n">
         <v>263459</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="10" t="n">
         <v>132649</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="10" t="n">
         <v>130810</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="10" t="n">
         <v>261367</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="10" t="n">
         <v>125807</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="10" t="n">
         <v>135560</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="10" t="n">
         <v>53747</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="10" t="n">
         <v>28507</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="10" t="n">
         <v>25240</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="10" t="n">
         <v>207620</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="10" t="n">
         <v>97300</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="10" t="n">
         <v>110320</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="10" t="n">
         <v>518366</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="10" t="n">
         <v>253746</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="10" t="n">
         <v>264620</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="10" t="n">
         <v>124283</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="10" t="n">
         <v>65094</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="10" t="n">
         <v>59189</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="10" t="n">
         <v>394083</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="10" t="n">
         <v>188652</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="10" t="n">
         <v>205431</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="10" t="n">
         <v>511160</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="10" t="n">
         <v>250178</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="10" t="n">
         <v>260982</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="10" t="n">
         <v>141309</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="10" t="n">
         <v>74765</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="10" t="n">
         <v>66544</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="10" t="n">
         <v>369851</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="10" t="n">
         <v>175413</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="10" t="n">
         <v>194438</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="10" t="n">
         <v>581208</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="10" t="n">
         <v>302237</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="10" t="n">
         <v>278971</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="10" t="n">
         <v>238504</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="10" t="n">
         <v>129686</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="10" t="n">
         <v>108818</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="10" t="n">
         <v>342704</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="10" t="n">
         <v>172551</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="10" t="n">
         <v>170153</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="10" t="n">
         <v>316425</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="10" t="n">
         <v>165161</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="10" t="n">
         <v>151264</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="10" t="n">
         <v>119978</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="10" t="n">
         <v>67985</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="10" t="n">
         <v>51993</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="10" t="n">
         <v>196447</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="10" t="n">
         <v>97176</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="10" t="n">
         <v>99271</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="10" t="n">
         <v>376915</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="10" t="n">
         <v>191283</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="10" t="n">
         <v>185632</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="10" t="n">
         <v>151555</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="10" t="n">
         <v>81340</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="10" t="n">
         <v>70215</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="10" t="n">
         <v>225360</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="10" t="n">
         <v>109943</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="10" t="n">
         <v>115417</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="10" t="n">
         <v>276122</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="10" t="n">
         <v>139643</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="10" t="n">
         <v>136479</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="10" t="n">
         <v>78195</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="10" t="n">
         <v>46685</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="10" t="n">
         <v>31510</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="10" t="n">
         <v>197927</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="10" t="n">
         <v>92958</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="10" t="n">
         <v>104969</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="10" t="n">
         <v>684951</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="10" t="n">
         <v>348024</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="10" t="n">
         <v>336927</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="10" t="n">
         <v>196821</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="10" t="n">
         <v>110250</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="10" t="n">
         <v>86571</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="10" t="n">
         <v>488130</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="10" t="n">
         <v>237774</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="10" t="n">
         <v>250356</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="10" t="n">
         <v>459367</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="10" t="n">
         <v>231671</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="10" t="n">
         <v>227696</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="10" t="n">
         <v>245905</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="10" t="n">
         <v>127441</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="10" t="n">
         <v>118464</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="10" t="n">
         <v>213462</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="10" t="n">
         <v>104230</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="10" t="n">
         <v>109232</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="10" t="n">
         <v>606540</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="10" t="n">
         <v>308154</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="10" t="n">
         <v>298386</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="10" t="n">
         <v>330082</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="10" t="n">
         <v>171779</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="10" t="n">
         <v>158303</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="10" t="n">
         <v>276458</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="10" t="n">
         <v>136375</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="10" t="n">
         <v>140083</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="10" t="n">
         <v>451679</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="10" t="n">
         <v>215932</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="10" t="n">
         <v>235747</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="10" t="n">
         <v>90906</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="10" t="n">
         <v>47818</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="10" t="n">
         <v>43088</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="10" t="n">
         <v>360773</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="10" t="n">
         <v>168114</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="10" t="n">
         <v>192659</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="10" t="n">
         <v>282238</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="10" t="n">
         <v>133580</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="10" t="n">
         <v>148658</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="10" t="n">
         <v>45070</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="10" t="n">
         <v>26173</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="10" t="n">
         <v>18897</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="10" t="n">
         <v>237168</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="10" t="n">
         <v>107407</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="10" t="n">
         <v>129761</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="10" t="n">
         <v>102312</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="10" t="n">
         <v>54813</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="10" t="n">
         <v>47499</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="10" t="n">
         <v>20794</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="10" t="n">
         <v>12525</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="10" t="n">
         <v>8269</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="10" t="n">
         <v>81518</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="10" t="n">
         <v>42288</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="10" t="n">
         <v>39230</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="10" t="n">
         <v>591064</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="10" t="n">
         <v>303068</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="10" t="n">
         <v>287996</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="10" t="n">
         <v>242052</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="10" t="n">
         <v>128445</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="10" t="n">
         <v>113607</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="10" t="n">
         <v>349012</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="10" t="n">
         <v>174623</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="10" t="n">
         <v>174389</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="10" t="n">
         <v>300029</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="10" t="n">
         <v>151283</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="10" t="n">
         <v>148746</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="10" t="n">
         <v>114296</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="10" t="n">
         <v>61659</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="10" t="n">
         <v>52637</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="10" t="n">
         <v>185733</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="10" t="n">
         <v>89624</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="10" t="n">
         <v>96109</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="10" t="n">
         <v>590943</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="10" t="n">
         <v>300197</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="10" t="n">
         <v>290746</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="10" t="n">
         <v>246300</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="10" t="n">
         <v>128906</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="10" t="n">
         <v>117394</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="10" t="n">
         <v>344643</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="10" t="n">
         <v>171291</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="10" t="n">
         <v>173352</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="10" t="n">
         <v>3019032</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="10" t="n">
         <v>1624658</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="10" t="n">
         <v>1394374</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="10" t="n">
         <v>2203337</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="10" t="n">
         <v>1183864</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="10" t="n">
         <v>1019473</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="10" t="n">
         <v>815695</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="10" t="n">
         <v>440794</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="10" t="n">
         <v>374901</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="10" t="n">
         <v>1427173</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="10" t="n">
         <v>739429</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="10" t="n">
         <v>687744</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="10" t="n">
         <v>753041</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="10" t="n">
         <v>391502</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="10" t="n">
         <v>361539</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="10" t="n">
         <v>674132</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="10" t="n">
         <v>347927</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="10" t="n">
         <v>326205</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="10" t="n">
         <v>660018</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="10" t="n">
         <v>335249</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="10" t="n">
         <v>324769</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="10" t="n">
         <v>153241</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="10" t="n">
         <v>91667</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="10" t="n">
         <v>61574</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="10" t="n">
         <v>506777</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="10" t="n">
         <v>243582</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="10" t="n">
         <v>263195</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="10" t="n">
         <v>446601</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="10" t="n">
         <v>214490</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="10" t="n">
         <v>232111</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="10" t="n">
         <v>82101</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="10" t="n">
         <v>44219</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="10" t="n">
         <v>37882</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="10" t="n">
         <v>364500</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="10" t="n">
         <v>170271</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="10" t="n">
         <v>194229</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="10" t="n">
         <v>598693</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="10" t="n">
         <v>293904</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="10" t="n">
         <v>304789</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="10" t="n">
         <v>236824</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="10" t="n">
         <v>123034</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="10" t="n">
         <v>113790</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="10" t="n">
         <v>361869</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="10" t="n">
         <v>170870</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="10" t="n">
         <v>190999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="10" t="n">
         <v>257131</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="10" t="n">
         <v>136509</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="10" t="n">
         <v>120622</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="10" t="n">
         <v>92581</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="10" t="n">
         <v>55096</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="10" t="n">
         <v>37485</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="10" t="n">
         <v>164550</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="10" t="n">
         <v>81413</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="10" t="n">
         <v>83137</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="10" t="n">
         <v>214932</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="10" t="n">
         <v>103170</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="10" t="n">
         <v>111762</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="10" t="n">
         <v>54669</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="10" t="n">
         <v>29295</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="10" t="n">
         <v>25374</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="10" t="n">
         <v>160263</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="10" t="n">
         <v>73875</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="10" t="n">
         <v>86388</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="10" t="n">
         <v>385408</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="10" t="n">
         <v>204040</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="10" t="n">
         <v>181368</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="10" t="n">
         <v>188185</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="10" t="n">
         <v>104998</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="10" t="n">
         <v>83187</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="10" t="n">
         <v>197223</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="10" t="n">
         <v>99042</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="10" t="n">
         <v>98181</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="10" t="n">
         <v>1280239</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="10" t="n">
         <v>632610</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="10" t="n">
         <v>647629</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="10" t="n">
         <v>455707</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="10" t="n">
         <v>237331</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="10" t="n">
         <v>218376</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="10" t="n">
         <v>824532</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="10" t="n">
         <v>395279</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="10" t="n">
         <v>429253</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="10" t="n">
         <v>439967</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="10" t="n">
         <v>224041</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="10" t="n">
         <v>215926</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="10" t="n">
         <v>110209</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="10" t="n">
         <v>61347</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="10" t="n">
         <v>48862</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="10" t="n">
         <v>329758</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="10" t="n">
         <v>162694</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="10" t="n">
         <v>167064</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="10" t="n">
         <v>510979</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="10" t="n">
         <v>256777</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="10" t="n">
         <v>254202</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="10" t="n">
         <v>179647</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="10" t="n">
         <v>94884</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="10" t="n">
         <v>84763</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="10" t="n">
         <v>331332</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="10" t="n">
         <v>161893</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="10" t="n">
         <v>169439</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="10" t="n">
         <v>805650</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="10" t="n">
         <v>405339</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="10" t="n">
         <v>400311</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="10" t="n">
         <v>299202</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="10" t="n">
         <v>155126</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="10" t="n">
         <v>144076</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="10" t="n">
         <v>506448</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="10" t="n">
         <v>250213</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="10" t="n">
         <v>256235</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="10" t="n">
         <v>528982</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="10" t="n">
         <v>266819</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="10" t="n">
         <v>262163</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="10" t="n">
         <v>165056</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="10" t="n">
         <v>87503</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="10" t="n">
         <v>77553</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="10" t="n">
         <v>363926</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="10" t="n">
         <v>179316</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="10" t="n">
         <v>184610</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="10" t="n">
         <v>453092</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="10" t="n">
         <v>230638</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="10" t="n">
         <v>222454</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="10" t="n">
         <v>119852</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="10" t="n">
         <v>63883</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="10" t="n">
         <v>55969</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="10" t="n">
         <v>333240</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="10" t="n">
         <v>166755</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="10" t="n">
         <v>166485</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="10" t="n">
         <v>368776</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="10" t="n">
         <v>183738</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="10" t="n">
         <v>185038</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="10" t="n">
         <v>70596</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="10" t="n">
         <v>36085</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="10" t="n">
         <v>34511</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="10" t="n">
         <v>298180</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="10" t="n">
         <v>147653</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="10" t="n">
         <v>150527</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="10" t="n">
         <v>234250</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="10" t="n">
         <v>120494</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="10" t="n">
         <v>113756</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="10" t="n">
         <v>44889</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="10" t="n">
         <v>25160</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="10" t="n">
         <v>19729</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="10" t="n">
         <v>189361</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="10" t="n">
         <v>95334</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="10" t="n">
         <v>94027</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="10" t="n">
         <v>229830</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="10" t="n">
         <v>109886</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="10" t="n">
         <v>119944</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="10" t="n">
         <v>57545</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="10" t="n">
         <v>29045</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="10" t="n">
         <v>28500</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="10" t="n">
         <v>172285</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="10" t="n">
         <v>80841</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="10" t="n">
         <v>91444</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="10" t="n">
         <v>408441</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="10" t="n">
         <v>197665</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="10" t="n">
         <v>210776</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="10" t="n">
         <v>85772</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="10" t="n">
         <v>43717</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="10" t="n">
         <v>42055</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="10" t="n">
         <v>322669</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="10" t="n">
         <v>153948</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="10" t="n">
         <v>168721</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="10" t="n">
         <v>608721</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="10" t="n">
         <v>298842</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="10" t="n">
         <v>309879</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="10" t="n">
         <v>118041</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="10" t="n">
         <v>63387</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="10" t="n">
         <v>54654</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="10" t="n">
         <v>490680</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="10" t="n">
         <v>235455</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="10" t="n">
         <v>255225</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="10" t="n">
         <v>315700</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="10" t="n">
         <v>150099</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="10" t="n">
         <v>165601</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="10" t="n">
         <v>72714</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="10" t="n">
         <v>38085</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="10" t="n">
         <v>34629</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="10" t="n">
         <v>242986</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="10" t="n">
         <v>112014</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="10" t="n">
         <v>130972</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="10" t="n">
         <v>459052</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="10" t="n">
         <v>228431</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="10" t="n">
         <v>230621</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="10" t="n">
         <v>152277</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="10" t="n">
         <v>79249</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="10" t="n">
         <v>73028</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="10" t="n">
         <v>306775</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="10" t="n">
         <v>149182</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="10" t="n">
         <v>157593</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="10" t="n">
         <v>821183</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="10" t="n">
         <v>404163</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="10" t="n">
         <v>417020</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="10" t="n">
         <v>235716</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="10" t="n">
         <v>119468</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="10" t="n">
         <v>116248</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="10" t="n">
         <v>585467</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="10" t="n">
         <v>284695</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="10" t="n">
         <v>300772</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="10" t="n">
         <v>320684</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="10" t="n">
         <v>166247</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="10" t="n">
         <v>154437</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="10" t="n">
         <v>111206</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="10" t="n">
         <v>59724</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="10" t="n">
         <v>51482</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="10" t="n">
         <v>209478</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="10" t="n">
         <v>106523</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="10" t="n">
         <v>102955</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="10" t="n">
         <v>265655</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="10" t="n">
         <v>127999</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="10" t="n">
         <v>137656</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="10" t="n">
         <v>46382</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="10" t="n">
         <v>24282</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="10" t="n">
         <v>22100</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="10" t="n">
         <v>219273</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="10" t="n">
         <v>103717</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="10" t="n">
         <v>115556</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="10" t="n">
         <v>731921</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="10" t="n">
         <v>358440</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="10" t="n">
         <v>373481</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="10" t="n">
         <v>211374</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="10" t="n">
         <v>113153</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="10" t="n">
         <v>98221</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72" s="10" t="n">
         <v>520547</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="10" t="n">
         <v>245287</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="10" t="n">
         <v>275260</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="10" t="n">
         <v>302946</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="10" t="n">
         <v>159917</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="10" t="n">
         <v>143029</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="10" t="n">
         <v>117351</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="10" t="n">
         <v>69261</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="10" t="n">
         <v>48090</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73" s="10" t="n">
         <v>185595</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="10" t="n">
         <v>90656</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="10" t="n">
         <v>94939</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="10" t="n">
         <v>540855</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="10" t="n">
         <v>269089</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="10" t="n">
         <v>271766</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="10" t="n">
         <v>146623</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="10" t="n">
         <v>76322</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="10" t="n">
         <v>70301</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74" s="10" t="n">
         <v>394232</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="10" t="n">
         <v>192767</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="10" t="n">
         <v>201465</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="10" t="n">
         <v>659120</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="10" t="n">
         <v>312736</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="10" t="n">
         <v>346384</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="10" t="n">
         <v>138435</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="10" t="n">
         <v>72892</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="10" t="n">
         <v>65543</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75" s="10" t="n">
         <v>520685</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="10" t="n">
         <v>239844</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="10" t="n">
         <v>280841</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="10" t="n">
         <v>157293</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="10" t="n">
         <v>78064</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="10" t="n">
         <v>79229</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="10" t="n">
         <v>29363</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="10" t="n">
         <v>16731</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="10" t="n">
         <v>12632</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="10" t="n">
         <v>127930</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="10" t="n">
         <v>61333</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="10" t="n">
         <v>66597</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="10" t="n">
         <v>538131</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="10" t="n">
         <v>274765</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="10" t="n">
         <v>263366</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="10" t="n">
         <v>205524</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="10" t="n">
         <v>107087</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="10" t="n">
         <v>98437</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="10" t="n">
         <v>332607</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="10" t="n">
         <v>167678</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="10" t="n">
         <v>164929</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="10" t="n">
         <v>207512</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="10" t="n">
         <v>100593</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="10" t="n">
         <v>106919</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="10" t="n">
         <v>69926</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="10" t="n">
         <v>36058</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="10" t="n">
         <v>33868</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="10" t="n">
         <v>137586</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="10" t="n">
         <v>64535</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="10" t="n">
         <v>73051</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="10" t="n">
         <v>325763</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="10" t="n">
         <v>171232</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="10" t="n">
         <v>154531</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="10" t="n">
         <v>88227</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="10" t="n">
         <v>49052</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="10" t="n">
         <v>39175</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="10" t="n">
         <v>237536</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="10" t="n">
         <v>122180</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="10" t="n">
         <v>115356</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="10" t="n">
         <v>464410</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="10" t="n">
         <v>226949</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="10" t="n">
         <v>237461</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="10" t="n">
         <v>88065</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="10" t="n">
         <v>47364</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="10" t="n">
         <v>40701</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80" s="10" t="n">
         <v>376345</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="10" t="n">
         <v>179585</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="10" t="n">
         <v>196760</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="10" t="n">
         <v>743654</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="10" t="n">
         <v>371109</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="10" t="n">
         <v>372545</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="10" t="n">
         <v>220904</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="10" t="n">
         <v>121275</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="10" t="n">
         <v>99629</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81" s="10" t="n">
         <v>522750</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="10" t="n">
         <v>249834</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="10" t="n">
         <v>272916</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>